--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$52</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="313">
   <si>
     <t>Path</t>
   </si>
@@ -347,9 +347,6 @@
     <t>Product generating the communication</t>
   </si>
   <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
     <t>communicationOnBehalfOf</t>
   </si>
   <si>
@@ -400,6 +397,16 @@
     <t>Priority of the communication request (1 = highest)</t>
   </si>
   <si>
+    <t>communicationLanguage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-language}
+</t>
+  </si>
+  <si>
+    <t>Language used for communication messaging content</t>
+  </si>
+  <si>
     <t>communicationTemplate</t>
   </si>
   <si>
@@ -410,6 +417,9 @@
     <t>Optional Extensions Element</t>
   </si>
   <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
     <t>communicationPayloadData</t>
   </si>
   <si>
@@ -435,6 +445,16 @@
   </si>
   <si>
     <t>Type of conversation, used for ihe chat communications</t>
+  </si>
+  <si>
+    <t>communicationReengagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-reengagement}
+</t>
+  </si>
+  <si>
+    <t>Sequence for subsequent communication attempts to reengage the patient</t>
   </si>
   <si>
     <t>communicationRetryLimit</t>
@@ -1135,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL50"/>
+  <dimension ref="A1:AL52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2189,7 +2209,7 @@
         <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2269,7 +2289,7 @@
         <v>93</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>39</v>
@@ -2291,13 +2311,13 @@
         <v>39</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>108</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2377,7 +2397,7 @@
         <v>93</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>39</v>
@@ -2399,13 +2419,13 @@
         <v>39</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2485,7 +2505,7 @@
         <v>93</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>39</v>
@@ -2507,13 +2527,13 @@
         <v>39</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2593,7 +2613,7 @@
         <v>93</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>39</v>
@@ -2615,13 +2635,13 @@
         <v>39</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2701,7 +2721,7 @@
         <v>93</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>39</v>
@@ -2723,13 +2743,13 @@
         <v>39</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="L15" t="s" s="2">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2809,14 +2829,14 @@
         <v>93</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>48</v>
@@ -2831,13 +2851,13 @@
         <v>39</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>123</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2917,7 +2937,7 @@
         <v>93</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>39</v>
@@ -2939,13 +2959,13 @@
         <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>123</v>
-      </c>
       <c r="L17" t="s" s="2">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3025,14 +3045,14 @@
         <v>93</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>48</v>
@@ -3047,13 +3067,13 @@
         <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3161,7 +3181,7 @@
         <v>131</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3221,7 +3241,7 @@
         <v>41</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>101</v>
@@ -3269,7 +3289,7 @@
         <v>134</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3359,7 +3379,7 @@
         <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>39</v>
@@ -3377,7 +3397,7 @@
         <v>137</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3467,7 +3487,7 @@
         <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>39</v>
@@ -3485,7 +3505,7 @@
         <v>140</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3562,11 +3582,13 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3579,26 +3601,22 @@
         <v>39</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>143</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>39</v>
       </c>
@@ -3646,7 +3664,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3672,9 +3690,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>39</v>
       </c>
@@ -3692,23 +3712,19 @@
         <v>39</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>39</v>
       </c>
@@ -3756,7 +3772,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3768,25 +3784,25 @@
         <v>39</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3799,22 +3815,26 @@
         <v>39</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>39</v>
       </c>
@@ -3862,7 +3882,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3874,21 +3894,21 @@
         <v>39</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>161</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3911,18 +3931,20 @@
         <v>49</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>39</v>
       </c>
@@ -3970,7 +3992,7 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -3985,22 +4007,22 @@
         <v>61</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>161</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4019,17 +4041,15 @@
         <v>49</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>39</v>
@@ -4078,7 +4098,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -4093,29 +4113,29 @@
         <v>61</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>39</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>39</v>
@@ -4127,15 +4147,17 @@
         <v>49</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>39</v>
@@ -4184,7 +4206,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4199,29 +4221,29 @@
         <v>61</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>39</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>39</v>
@@ -4230,18 +4252,20 @@
         <v>39</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>39</v>
@@ -4290,7 +4314,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4305,7 +4329,7 @@
         <v>61</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>39</v>
@@ -4316,40 +4340,38 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>70</v>
+        <v>182</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>39</v>
@@ -4374,13 +4396,13 @@
         <v>39</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>39</v>
@@ -4398,13 +4420,13 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>39</v>
@@ -4413,10 +4435,10 @@
         <v>61</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
@@ -4424,18 +4446,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>39</v>
@@ -4444,20 +4466,18 @@
         <v>39</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>39</v>
@@ -4482,11 +4502,13 @@
         <v>39</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>200</v>
+        <v>39</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>39</v>
@@ -4504,13 +4526,13 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>39</v>
@@ -4519,7 +4541,7 @@
         <v>61</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
@@ -4530,7 +4552,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4538,31 +4560,31 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>195</v>
+        <v>70</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4588,13 +4610,13 @@
         <v>39</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>39</v>
@@ -4612,13 +4634,13 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>39</v>
@@ -4627,10 +4649,10 @@
         <v>61</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>39</v>
@@ -4638,11 +4660,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4661,24 +4683,22 @@
         <v>49</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="P33" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
         <v>39</v>
       </c>
@@ -4698,13 +4718,11 @@
         <v>39</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>39</v>
@@ -4722,7 +4740,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4737,10 +4755,10 @@
         <v>61</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>39</v>
@@ -4748,7 +4766,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4756,10 +4774,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>39</v>
@@ -4771,15 +4789,17 @@
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>39</v>
@@ -4804,11 +4824,13 @@
         <v>39</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X34" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="Y34" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>39</v>
@@ -4826,7 +4848,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -4844,7 +4866,7 @@
         <v>39</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>39</v>
@@ -4852,11 +4874,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4875,20 +4897,24 @@
         <v>49</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="P35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="Q35" t="s" s="2">
         <v>39</v>
       </c>
@@ -4908,13 +4934,13 @@
         <v>39</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>39</v>
@@ -4932,7 +4958,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -4947,10 +4973,10 @@
         <v>61</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>225</v>
+        <v>39</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>39</v>
@@ -4958,7 +4984,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4966,10 +4992,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>39</v>
@@ -4981,17 +5007,15 @@
         <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>39</v>
@@ -5016,13 +5040,11 @@
         <v>39</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>39</v>
@@ -5040,13 +5062,13 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>39</v>
@@ -5058,7 +5080,7 @@
         <v>39</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>233</v>
+        <v>39</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
@@ -5066,18 +5088,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>39</v>
+        <v>227</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>39</v>
@@ -5086,20 +5108,18 @@
         <v>39</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>39</v>
@@ -5148,13 +5168,13 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>39</v>
@@ -5163,10 +5183,10 @@
         <v>61</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>39</v>
@@ -5174,7 +5194,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5194,19 +5214,19 @@
         <v>39</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5232,13 +5252,13 @@
         <v>39</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>39</v>
+        <v>237</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>39</v>
@@ -5256,7 +5276,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5271,10 +5291,10 @@
         <v>61</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>244</v>
+        <v>39</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>39</v>
@@ -5282,7 +5302,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5293,7 +5313,7 @@
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>39</v>
@@ -5305,15 +5325,17 @@
         <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>39</v>
@@ -5362,13 +5384,13 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>39</v>
@@ -5377,10 +5399,10 @@
         <v>61</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>249</v>
+        <v>39</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>39</v>
@@ -5388,7 +5410,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5399,7 +5421,7 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>39</v>
@@ -5408,18 +5430,20 @@
         <v>39</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>246</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>39</v>
@@ -5468,7 +5492,7 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5483,10 +5507,10 @@
         <v>61</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>39</v>
@@ -5494,7 +5518,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5505,7 +5529,7 @@
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>39</v>
@@ -5517,13 +5541,13 @@
         <v>39</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5574,13 +5598,13 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>39</v>
@@ -5589,10 +5613,10 @@
         <v>61</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>39</v>
@@ -5600,7 +5624,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5623,13 +5647,13 @@
         <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5680,7 +5704,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -5695,10 +5719,10 @@
         <v>61</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>39</v>
@@ -5706,7 +5730,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5717,7 +5741,7 @@
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>39</v>
@@ -5726,20 +5750,18 @@
         <v>39</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>195</v>
+        <v>262</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>39</v>
@@ -5764,13 +5786,13 @@
         <v>39</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>269</v>
+        <v>39</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>270</v>
+        <v>39</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>39</v>
@@ -5788,7 +5810,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -5803,18 +5825,18 @@
         <v>61</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>273</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5825,7 +5847,7 @@
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>39</v>
@@ -5834,16 +5856,16 @@
         <v>39</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5894,13 +5916,13 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>39</v>
@@ -5909,18 +5931,18 @@
         <v>61</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>279</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5931,7 +5953,7 @@
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>39</v>
@@ -5940,18 +5962,20 @@
         <v>39</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>39</v>
@@ -5976,13 +6000,13 @@
         <v>39</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>39</v>
@@ -6000,7 +6024,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6015,18 +6039,18 @@
         <v>61</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>39</v>
+        <v>277</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>39</v>
+        <v>278</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>39</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6037,7 +6061,7 @@
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>39</v>
@@ -6046,16 +6070,16 @@
         <v>39</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>50</v>
+        <v>281</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6106,37 +6130,37 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>39</v>
+        <v>284</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>39</v>
+        <v>278</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6155,17 +6179,15 @@
         <v>39</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>95</v>
+        <v>287</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>39</v>
@@ -6214,7 +6236,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6226,7 +6248,7 @@
         <v>39</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>39</v>
@@ -6235,48 +6257,44 @@
         <v>39</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>288</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>294</v>
+        <v>39</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>39</v>
       </c>
@@ -6324,19 +6342,19 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>39</v>
@@ -6345,23 +6363,23 @@
         <v>39</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>62</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>39</v>
@@ -6373,15 +6391,17 @@
         <v>39</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>299</v>
+        <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>39</v>
@@ -6433,16 +6453,16 @@
         <v>298</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>39</v>
@@ -6451,44 +6471,48 @@
         <v>39</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>39</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>39</v>
+        <v>300</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>303</v>
+        <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>39</v>
       </c>
@@ -6536,7 +6560,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6548,20 +6572,232 @@
         <v>39</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI51" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AJ51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL50">
+  <autoFilter ref="A1:AL52">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6571,7 +6807,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI49">
+  <conditionalFormatting sqref="A2:AI51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="349">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,16 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T17:36:56+00:00</t>
+    <t>2022-01-21T20:46:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
+    <t>Alvearie Team</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -514,10 +517,10 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Communication Template</t>
+  </si>
+  <si>
+    <t>ID or url reference to template to be used for communication</t>
   </si>
   <si>
     <t>communicationPayloadData</t>
@@ -525,6 +528,12 @@
   <si>
     <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-payload-data}
 </t>
+  </si>
+  <si>
+    <t>Communication Payload Data</t>
+  </si>
+  <si>
+    <t>Contains dynamic data elements and vendor / medium specific elements to be included in the message payload</t>
   </si>
   <si>
     <t>communicationVendor</t>
@@ -1255,7 +1264,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1331,90 +1340,84 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1475,5594 +1478,5594 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -553,7 +553,7 @@
 </t>
   </si>
   <si>
-    <t>Type of conversation, used for ihe chat communications</t>
+    <t>Type of conversation, used for chat communications</t>
   </si>
   <si>
     <t>communicationReengagement</t>

--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1437,43 +1437,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.56640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.8203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.82421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="89.875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="75.41015625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="75.4140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="56.890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="35.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="50.6484375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="44.93359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="44.9375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="350">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -271,781 +271,785 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Communication.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Communication.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Communication.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Communication.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Communication.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>Communication.extension</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>communicationProduct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-product}
+</t>
+  </si>
+  <si>
+    <t>Product generating the communication</t>
+  </si>
+  <si>
+    <t>communicationOnBehalfOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-on-behalf-of}
+</t>
+  </si>
+  <si>
+    <t>Attributed provider, location, or organization communication is on-behalf of</t>
+  </si>
+  <si>
+    <t>communicationContact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-contact}
+</t>
+  </si>
+  <si>
+    <t>Phone number, email, or address to contact</t>
+  </si>
+  <si>
+    <t>communicationMeasure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-measure}
+</t>
+  </si>
+  <si>
+    <t>Reference to the measure that resulted in the communication</t>
+  </si>
+  <si>
+    <t>communicationCareGap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-care-gap}
+</t>
+  </si>
+  <si>
+    <t>ID of care gap for which we are communicating</t>
+  </si>
+  <si>
+    <t>communicationPrioritySequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-priority-sequence}
+</t>
+  </si>
+  <si>
+    <t>Priority of the communication request (1 = highest)</t>
+  </si>
+  <si>
+    <t>communicationLanguage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-language}
+</t>
+  </si>
+  <si>
+    <t>Language used for communication messaging content</t>
+  </si>
+  <si>
+    <t>communicationTemplate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-template}
+</t>
+  </si>
+  <si>
+    <t>Communication Template</t>
+  </si>
+  <si>
+    <t>ID or url reference to template to be used for communication</t>
+  </si>
+  <si>
+    <t>communicationPayloadData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-payload-data}
+</t>
+  </si>
+  <si>
+    <t>Communication Payload Data</t>
+  </si>
+  <si>
+    <t>Contains dynamic data elements and vendor / medium specific elements to be included in the message payload</t>
+  </si>
+  <si>
+    <t>communicationVendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-vendor}
+</t>
+  </si>
+  <si>
+    <t>Vendor used to send the communication</t>
+  </si>
+  <si>
+    <t>conversationType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/conversation-type}
+</t>
+  </si>
+  <si>
+    <t>Type of conversation, used for chat communications</t>
+  </si>
+  <si>
+    <t>communicationReengagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-reengagement}
+</t>
+  </si>
+  <si>
+    <t>Sequence for subsequent communication attempts to reengage the patient</t>
+  </si>
+  <si>
+    <t>communicationRetryLimit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-retry-limt}
+</t>
+  </si>
+  <si>
+    <t>Retry limit configuration, may vary by medium and vendor</t>
+  </si>
+  <si>
+    <t>sentToVendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/sent-to-vendor}
+</t>
+  </si>
+  <si>
+    <t>Records date/time and outcome of communications sent to vendor</t>
+  </si>
+  <si>
+    <t>sentToRecipient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/sent-to-recipient}
+</t>
+  </si>
+  <si>
+    <t>Records date/time and outcome of communication attempts with the recipient</t>
+  </si>
+  <si>
+    <t>Communication.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Communication.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Unique identifier</t>
+  </si>
+  <si>
+    <t>Business identifiers assigned to this communication by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Allows identification of the communication as it is known by various participating systems and in a way that remains consistent across servers.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Communication.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(PlanDefinition|ActivityDefinition|Measure|OperationDefinition|Questionnaire)
+</t>
+  </si>
+  <si>
+    <t>Instantiates FHIR protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this Communication.</t>
+  </si>
+  <si>
+    <t>Event.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>Communication.instantiatesUri</t>
+  </si>
+  <si>
+    <t>Instantiates external protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this Communication.</t>
+  </si>
+  <si>
+    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+  </si>
+  <si>
+    <t>Event.instantiatesUri</t>
+  </si>
+  <si>
+    <t>Communication.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ibm.com/fhir/cdm/StructureDefinition/engagement-communication-request)
+</t>
+  </si>
+  <si>
+    <t>Request fulfilled by this communication</t>
+  </si>
+  <si>
+    <t>An order, proposal or plan fulfilled in whole or in part by this Communication.</t>
+  </si>
+  <si>
+    <t>This must point to some sort of a 'Request' resource, such as CarePlan, CommunicationRequest, ServiceRequest, MedicationRequest, etc.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>Communication.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Part of this action</t>
+  </si>
+  <si>
+    <t>Part of this action.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>Communication.inResponseTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Communication)
+</t>
+  </si>
+  <si>
+    <t>Reply to</t>
+  </si>
+  <si>
+    <t>Prior communication that this communication is in response to.</t>
+  </si>
+  <si>
+    <t>Communication.status</t>
+  </si>
+  <si>
+    <t>preparation | in-progress | not-done | on-hold | stopped | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>The status of the transmission.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains the codes aborted and entered-in-error that mark the communication as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of the communication.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/event-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Communication.statusReason</t>
+  </si>
+  <si>
+    <t>Suspended Reason
+Cancelled Reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Reason for current status</t>
+  </si>
+  <si>
+    <t>Captures the reason for the current state of the Communication.</t>
+  </si>
+  <si>
+    <t>This is generally only used for "exception" statuses such as "not-done", "suspended" or "aborted". The reason for performing the event at all is captured in reasonCode, not here.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/ValueSet/eng-communication-status</t>
+  </si>
+  <si>
+    <t>Event.statusReason</t>
+  </si>
+  <si>
+    <t>Communication.category</t>
+  </si>
+  <si>
+    <t>Message category</t>
+  </si>
+  <si>
+    <t>The type of message conveyed such as alert, notification, reminder, instruction, etc.</t>
+  </si>
+  <si>
+    <t>There may be multiple axes of categorization and one communication may serve multiple purposes.</t>
+  </si>
+  <si>
+    <t>Codes for general categories of communications such as alerts, instructions, etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/communication-category</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Communication.priority</t>
+  </si>
+  <si>
+    <t>routine | urgent | asap | stat</t>
+  </si>
+  <si>
+    <t>Characterizes how quickly the planned or in progress communication must be addressed. Includes concepts such as stat, urgent, routine.</t>
+  </si>
+  <si>
+    <t>Used to prioritize workflow (such as which communication to read first) when the communication is planned or in progress.</t>
+  </si>
+  <si>
+    <t>If missing, this communication should be treated with normal priority</t>
+  </si>
+  <si>
+    <t>Codes indicating the relative importance of a communication.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+  </si>
+  <si>
+    <t>FiveWs.grade</t>
+  </si>
+  <si>
+    <t>Communication.medium</t>
+  </si>
+  <si>
+    <t>Medium used as the mode of communication for engagement (phone | sms | email | mail | chat)</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/ValueSet/eng-communication-mode</t>
+  </si>
+  <si>
+    <t>Communication.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Group)
+</t>
+  </si>
+  <si>
+    <t>Focus of message</t>
+  </si>
+  <si>
+    <t>The patient or group that was the focus of this communication.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Communication.topic</t>
+  </si>
+  <si>
+    <t>Description of the purpose/content</t>
+  </si>
+  <si>
+    <t>Description of the purpose/content, similar to a subject line in an email.</t>
+  </si>
+  <si>
+    <t>Communication.topic.text can be used without any codings.</t>
+  </si>
+  <si>
+    <t>Codes describing the purpose or content of the communication.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/communication-topic</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Communication.about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ibm.com/fhir/cdm/StructureDefinition/measure-population-observation|http://ibm.com/fhir/cdm/StructureDefinition/care-gap-detected-issue)
+</t>
+  </si>
+  <si>
+    <t>Resources that pertain to this communication</t>
+  </si>
+  <si>
+    <t>Other resources that pertain to this communication and to which this communication should be associated.</t>
+  </si>
+  <si>
+    <t>Don't use Communication.about element when a more specific element exists, such as basedOn or reasonReference.</t>
+  </si>
+  <si>
+    <t>Communication.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter created as part of</t>
+  </si>
+  <si>
+    <t>The Encounter during which this Communication was created or to which the creation of this record is tightly associated.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>Communication.sent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When sent</t>
+  </si>
+  <si>
+    <t>The time when this communication was sent.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x] {Invariant: maps to period.start}</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>Communication.received</t>
+  </si>
+  <si>
+    <t>When received</t>
+  </si>
+  <si>
+    <t>The time when this communication arrived at the destination.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x] {Invariant: maps to period.end}</t>
+  </si>
+  <si>
+    <t>Communication.recipient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Device|Organization|Patient|Practitioner|PractitionerRole|RelatedPerson|Group|CareTeam|HealthcareService)
+</t>
+  </si>
+  <si>
+    <t>Message recipient</t>
+  </si>
+  <si>
+    <t>The entity (e.g. person, organization, clinical information system, care team or device) which was the target of the communication. If receipts need to be tracked by an individual, a separate resource instance will need to be created for each recipient.  Multiple recipient communications are intended where either receipts are not tracked (e.g. a mass mail-out) or a receipt is captured in aggregate (all emails confirmed received by a particular time).</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>Communication.sender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Device|Organization|Patient|Practitioner|PractitionerRole|RelatedPerson|HealthcareService)
+</t>
+  </si>
+  <si>
+    <t>Message sender</t>
+  </si>
+  <si>
+    <t>The entity (e.g. person, organization, clinical information system, or device) which was the source of the communication.</t>
+  </si>
+  <si>
+    <t>Communication.reasonCode</t>
+  </si>
+  <si>
+    <t>Indication for message</t>
+  </si>
+  <si>
+    <t>The reason or justification for the communication.</t>
+  </si>
+  <si>
+    <t>Textual reasons can be captured using reasonCode.text.</t>
+  </si>
+  <si>
+    <t>Codes for describing reasons for the occurrence of a communication.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+  </si>
+  <si>
+    <t>Event.reasonCode</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>.reasonCode</t>
+  </si>
+  <si>
+    <t>Communication.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport|DocumentReference)
+</t>
+  </si>
+  <si>
+    <t>Why was communication done?</t>
+  </si>
+  <si>
+    <t>Indicates another resource whose existence justifies this communication.</t>
+  </si>
+  <si>
+    <t>Event.reasonReference</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON].target</t>
+  </si>
+  <si>
+    <t>Communication.payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Message payload</t>
+  </si>
+  <si>
+    <t>Text, attachment(s), or resource(s) that was communicated to the recipient.</t>
+  </si>
+  <si>
+    <t>Communication.payload.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Communication.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Communication.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Communication.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Communication.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Communication.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Communication.extension</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>communicationProduct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-product}
-</t>
-  </si>
-  <si>
-    <t>Product generating the communication</t>
-  </si>
-  <si>
-    <t>communicationOnBehalfOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-on-behalf-of}
-</t>
-  </si>
-  <si>
-    <t>Attributed provider, location, or organization communication is on-behalf of</t>
-  </si>
-  <si>
-    <t>communicationContact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-contact}
-</t>
-  </si>
-  <si>
-    <t>Phone number, email, or address to contact</t>
-  </si>
-  <si>
-    <t>communicationMeasure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-measure}
-</t>
-  </si>
-  <si>
-    <t>Reference to the measure that resulted in the communication</t>
-  </si>
-  <si>
-    <t>communicationCareGap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-care-gap}
-</t>
-  </si>
-  <si>
-    <t>ID of care gap for which we are communicating</t>
-  </si>
-  <si>
-    <t>communicationPrioritySequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-priority-sequence}
-</t>
-  </si>
-  <si>
-    <t>Priority of the communication request (1 = highest)</t>
-  </si>
-  <si>
-    <t>communicationLanguage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-language}
-</t>
-  </si>
-  <si>
-    <t>Language used for communication messaging content</t>
-  </si>
-  <si>
-    <t>communicationTemplate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-template}
-</t>
-  </si>
-  <si>
-    <t>Communication Template</t>
-  </si>
-  <si>
-    <t>ID or url reference to template to be used for communication</t>
-  </si>
-  <si>
-    <t>communicationPayloadData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-payload-data}
-</t>
-  </si>
-  <si>
-    <t>Communication Payload Data</t>
-  </si>
-  <si>
-    <t>Contains dynamic data elements and vendor / medium specific elements to be included in the message payload</t>
-  </si>
-  <si>
-    <t>communicationVendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-vendor}
-</t>
-  </si>
-  <si>
-    <t>Vendor used to send the communication</t>
-  </si>
-  <si>
-    <t>conversationType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/conversation-type}
-</t>
-  </si>
-  <si>
-    <t>Type of conversation, used for chat communications</t>
-  </si>
-  <si>
-    <t>communicationReengagement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-reengagement}
-</t>
-  </si>
-  <si>
-    <t>Sequence for subsequent communication attempts to reengage the patient</t>
-  </si>
-  <si>
-    <t>communicationRetryLimit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-retry-limt}
-</t>
-  </si>
-  <si>
-    <t>Retry limit configuration, may vary by medium and vendor</t>
-  </si>
-  <si>
-    <t>sentToVendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/sent-to-vendor}
-</t>
-  </si>
-  <si>
-    <t>Records date/time and outcome of communications sent to vendor</t>
-  </si>
-  <si>
-    <t>sentToRecipient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/sent-to-recipient}
-</t>
-  </si>
-  <si>
-    <t>Records date/time and outcome of communication attempts with the recipient</t>
-  </si>
-  <si>
-    <t>Communication.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Communication.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Unique identifier</t>
-  </si>
-  <si>
-    <t>Business identifiers assigned to this communication by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Allows identification of the communication as it is known by various participating systems and in a way that remains consistent across servers.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Communication.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(PlanDefinition|ActivityDefinition|Measure|OperationDefinition|Questionnaire)
-</t>
-  </si>
-  <si>
-    <t>Instantiates FHIR protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this Communication.</t>
-  </si>
-  <si>
-    <t>Event.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>Communication.instantiatesUri</t>
-  </si>
-  <si>
-    <t>Instantiates external protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this Communication.</t>
-  </si>
-  <si>
-    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
-  </si>
-  <si>
-    <t>Event.instantiatesUri</t>
-  </si>
-  <si>
-    <t>Communication.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ibm.com/fhir/cdm/StructureDefinition/engagement-communication-request)
-</t>
-  </si>
-  <si>
-    <t>Request fulfilled by this communication</t>
-  </si>
-  <si>
-    <t>An order, proposal or plan fulfilled in whole or in part by this Communication.</t>
-  </si>
-  <si>
-    <t>This must point to some sort of a 'Request' resource, such as CarePlan, CommunicationRequest, ServiceRequest, MedicationRequest, etc.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>Communication.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Part of this action</t>
-  </si>
-  <si>
-    <t>Part of this action.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>Communication.inResponseTo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Communication)
-</t>
-  </si>
-  <si>
-    <t>Reply to</t>
-  </si>
-  <si>
-    <t>Prior communication that this communication is in response to.</t>
-  </si>
-  <si>
-    <t>Communication.status</t>
-  </si>
-  <si>
-    <t>preparation | in-progress | not-done | on-hold | stopped | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>The status of the transmission.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains the codes aborted and entered-in-error that mark the communication as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The status of the communication.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/event-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Communication.statusReason</t>
-  </si>
-  <si>
-    <t>Suspended Reason
-Cancelled Reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Reason for current status</t>
-  </si>
-  <si>
-    <t>Captures the reason for the current state of the Communication.</t>
-  </si>
-  <si>
-    <t>This is generally only used for "exception" statuses such as "not-done", "suspended" or "aborted". The reason for performing the event at all is captured in reasonCode, not here.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/eng-communication-status</t>
-  </si>
-  <si>
-    <t>Event.statusReason</t>
-  </si>
-  <si>
-    <t>Communication.category</t>
-  </si>
-  <si>
-    <t>Message category</t>
-  </si>
-  <si>
-    <t>The type of message conveyed such as alert, notification, reminder, instruction, etc.</t>
-  </si>
-  <si>
-    <t>There may be multiple axes of categorization and one communication may serve multiple purposes.</t>
-  </si>
-  <si>
-    <t>Codes for general categories of communications such as alerts, instructions, etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/communication-category</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Communication.priority</t>
-  </si>
-  <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>Characterizes how quickly the planned or in progress communication must be addressed. Includes concepts such as stat, urgent, routine.</t>
-  </si>
-  <si>
-    <t>Used to prioritize workflow (such as which communication to read first) when the communication is planned or in progress.</t>
-  </si>
-  <si>
-    <t>If missing, this communication should be treated with normal priority</t>
-  </si>
-  <si>
-    <t>Codes indicating the relative importance of a communication.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
-  </si>
-  <si>
-    <t>FiveWs.grade</t>
-  </si>
-  <si>
-    <t>Communication.medium</t>
-  </si>
-  <si>
-    <t>Medium used as the mode of communication for engagement (phone | sms | email | mail | chat)</t>
-  </si>
-  <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/eng-communication-mode</t>
-  </si>
-  <si>
-    <t>Communication.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Group)
-</t>
-  </si>
-  <si>
-    <t>Focus of message</t>
-  </si>
-  <si>
-    <t>The patient or group that was the focus of this communication.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Communication.topic</t>
-  </si>
-  <si>
-    <t>Description of the purpose/content</t>
-  </si>
-  <si>
-    <t>Description of the purpose/content, similar to a subject line in an email.</t>
-  </si>
-  <si>
-    <t>Communication.topic.text can be used without any codings.</t>
-  </si>
-  <si>
-    <t>Codes describing the purpose or content of the communication.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/communication-topic</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Communication.about</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ibm.com/fhir/cdm/StructureDefinition/measure-population-observation|http://ibm.com/fhir/cdm/StructureDefinition/care-gap-detected-issue)
-</t>
-  </si>
-  <si>
-    <t>Resources that pertain to this communication</t>
-  </si>
-  <si>
-    <t>Other resources that pertain to this communication and to which this communication should be associated.</t>
-  </si>
-  <si>
-    <t>Don't use Communication.about element when a more specific element exists, such as basedOn or reasonReference.</t>
-  </si>
-  <si>
-    <t>Communication.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Encounter created as part of</t>
-  </si>
-  <si>
-    <t>The Encounter during which this Communication was created or to which the creation of this record is tightly associated.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>Communication.sent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When sent</t>
-  </si>
-  <si>
-    <t>The time when this communication was sent.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x] {Invariant: maps to period.start}</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>Communication.received</t>
-  </si>
-  <si>
-    <t>When received</t>
-  </si>
-  <si>
-    <t>The time when this communication arrived at the destination.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x] {Invariant: maps to period.end}</t>
-  </si>
-  <si>
-    <t>Communication.recipient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Device|Organization|Patient|Practitioner|PractitionerRole|RelatedPerson|Group|CareTeam|HealthcareService)
-</t>
-  </si>
-  <si>
-    <t>Message recipient</t>
-  </si>
-  <si>
-    <t>The entity (e.g. person, organization, clinical information system, care team or device) which was the target of the communication. If receipts need to be tracked by an individual, a separate resource instance will need to be created for each recipient.  Multiple recipient communications are intended where either receipts are not tracked (e.g. a mass mail-out) or a receipt is captured in aggregate (all emails confirmed received by a particular time).</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>Communication.sender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Device|Organization|Patient|Practitioner|PractitionerRole|RelatedPerson|HealthcareService)
-</t>
-  </si>
-  <si>
-    <t>Message sender</t>
-  </si>
-  <si>
-    <t>The entity (e.g. person, organization, clinical information system, or device) which was the source of the communication.</t>
-  </si>
-  <si>
-    <t>Communication.reasonCode</t>
-  </si>
-  <si>
-    <t>Indication for message</t>
-  </si>
-  <si>
-    <t>The reason or justification for the communication.</t>
-  </si>
-  <si>
-    <t>Textual reasons can be captured using reasonCode.text.</t>
-  </si>
-  <si>
-    <t>Codes for describing reasons for the occurrence of a communication.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
-  </si>
-  <si>
-    <t>Event.reasonCode</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>.reasonCode</t>
-  </si>
-  <si>
-    <t>Communication.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport|DocumentReference)
-</t>
-  </si>
-  <si>
-    <t>Why was communication done?</t>
-  </si>
-  <si>
-    <t>Indicates another resource whose existence justifies this communication.</t>
-  </si>
-  <si>
-    <t>Event.reasonReference</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON].target</t>
-  </si>
-  <si>
-    <t>Communication.payload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Message payload</t>
-  </si>
-  <si>
-    <t>Text, attachment(s), or resource(s) that was communicated to the recipient.</t>
-  </si>
-  <si>
-    <t>Communication.payload.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -6557,13 +6561,13 @@
         <v>73</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>84</v>
+        <v>327</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6614,7 +6618,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -6635,12 +6639,12 @@
         <v>73</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6666,10 +6670,10 @@
         <v>129</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>187</v>
@@ -6722,7 +6726,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -6743,16 +6747,16 @@
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6774,10 +6778,10 @@
         <v>129</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>187</v>
@@ -6832,7 +6836,7 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -6858,7 +6862,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6881,13 +6885,13 @@
         <v>73</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6938,7 +6942,7 @@
         <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>82</v>
@@ -6964,7 +6968,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6987,13 +6991,13 @@
         <v>73</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7044,7 +7048,7 @@
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -7059,7 +7063,7 @@
         <v>95</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-engagement-communication.xlsx
+++ b/StructureDefinition-engagement-communication.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="349">
   <si>
     <t>Property</t>
   </si>
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/engagement-communication</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/engagement-communication</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -108,7 +108,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/cdm-communication</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-communication</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -250,10 +250,6 @@
   </si>
   <si>
     <t>An occurrence of information being transmitted; e.g. an alert that was sent to a responsible provider, a public health agency that was notified about a reportable condition.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -290,7 +286,7 @@
     <t>Communication.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+    <t xml:space="preserve">Meta {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-meta}
 </t>
   </si>
   <si>
@@ -443,7 +439,7 @@
     <t>communicationProduct</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-product}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-product}
 </t>
   </si>
   <si>
@@ -453,7 +449,7 @@
     <t>communicationOnBehalfOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-on-behalf-of}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-on-behalf-of}
 </t>
   </si>
   <si>
@@ -463,7 +459,7 @@
     <t>communicationContact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-contact}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-contact}
 </t>
   </si>
   <si>
@@ -473,7 +469,7 @@
     <t>communicationMeasure</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-measure}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-measure}
 </t>
   </si>
   <si>
@@ -483,7 +479,7 @@
     <t>communicationCareGap</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-care-gap}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-care-gap}
 </t>
   </si>
   <si>
@@ -493,7 +489,7 @@
     <t>communicationPrioritySequence</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-priority-sequence}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-priority-sequence}
 </t>
   </si>
   <si>
@@ -503,7 +499,7 @@
     <t>communicationLanguage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-language}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-language}
 </t>
   </si>
   <si>
@@ -513,7 +509,7 @@
     <t>communicationTemplate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-template}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-template}
 </t>
   </si>
   <si>
@@ -526,7 +522,7 @@
     <t>communicationPayloadData</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-payload-data}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-payload-data}
 </t>
   </si>
   <si>
@@ -539,7 +535,7 @@
     <t>communicationVendor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-vendor}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-vendor}
 </t>
   </si>
   <si>
@@ -549,7 +545,7 @@
     <t>conversationType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/conversation-type}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/conversation-type}
 </t>
   </si>
   <si>
@@ -559,7 +555,7 @@
     <t>communicationReengagement</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-reengagement}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-reengagement}
 </t>
   </si>
   <si>
@@ -569,7 +565,7 @@
     <t>communicationRetryLimit</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-retry-limt}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-retry-limt}
 </t>
   </si>
   <si>
@@ -579,7 +575,7 @@
     <t>sentToVendor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/sent-to-vendor}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/sent-to-vendor}
 </t>
   </si>
   <si>
@@ -589,7 +585,7 @@
     <t>sentToRecipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/sent-to-recipient}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/sent-to-recipient}
 </t>
   </si>
   <si>
@@ -685,7 +681,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ibm.com/fhir/cdm/StructureDefinition/engagement-communication-request)
+    <t xml:space="preserve">Reference(http://linuxforhealth.org/fhir/cdm/StructureDefinition/engagement-communication-request)
 </t>
   </si>
   <si>
@@ -784,7 +780,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/eng-communication-status</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/eng-communication-status</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -841,7 +837,7 @@
     <t>Medium used as the mode of communication for engagement (phone | sms | email | mail | chat)</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/eng-communication-mode</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/eng-communication-mode</t>
   </si>
   <si>
     <t>Communication.subject</t>
@@ -891,7 +887,7 @@
     <t>Communication.about</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ibm.com/fhir/cdm/StructureDefinition/measure-population-observation|http://ibm.com/fhir/cdm/StructureDefinition/care-gap-detected-issue)
+    <t xml:space="preserve">Reference(http://linuxforhealth.org/fhir/cdm/StructureDefinition/measure-population-observation|http://linuxforhealth.org/fhir/cdm/StructureDefinition/care-gap-detected-issue)
 </t>
   </si>
   <si>
@@ -1464,7 +1460,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="75.4140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.30859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
@@ -1690,21 +1686,21 @@
         <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1715,28 +1711,28 @@
         <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1786,13 +1782,13 @@
         <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>73</v>
@@ -1812,7 +1808,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1823,7 +1819,7 @@
         <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>73</v>
@@ -1835,13 +1831,13 @@
         <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1892,33 +1888,33 @@
         <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL4" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1929,28 +1925,28 @@
         <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2000,19 +1996,19 @@
         <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>73</v>
@@ -2026,7 +2022,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2037,7 +2033,7 @@
         <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>73</v>
@@ -2049,16 +2045,16 @@
         <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2084,43 +2080,43 @@
         <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>73</v>
@@ -2134,18 +2130,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>73</v>
@@ -2157,16 +2153,16 @@
         <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2216,37 +2212,37 @@
         <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>119</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2265,16 +2261,16 @@
         <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2324,7 +2320,7 @@
         <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>74</v>
@@ -2345,12 +2341,12 @@
         <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2358,7 +2354,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>75</v>
@@ -2373,13 +2369,13 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2418,17 +2414,17 @@
         <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2440,7 +2436,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -2454,10 +2450,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>73</v>
@@ -2467,7 +2463,7 @@
         <v>74</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>73</v>
@@ -2479,13 +2475,13 @@
         <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2536,7 +2532,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2545,10 +2541,10 @@
         <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2562,10 +2558,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>73</v>
@@ -2575,7 +2571,7 @@
         <v>74</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>73</v>
@@ -2587,13 +2583,13 @@
         <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2644,7 +2640,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2653,10 +2649,10 @@
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>73</v>
@@ -2670,24 +2666,24 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="H12" t="s" s="2">
         <v>73</v>
       </c>
@@ -2695,13 +2691,13 @@
         <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2752,7 +2748,7 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
@@ -2761,10 +2757,10 @@
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>73</v>
@@ -2778,10 +2774,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>73</v>
@@ -2791,7 +2787,7 @@
         <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>73</v>
@@ -2803,13 +2799,13 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>147</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2860,7 +2856,7 @@
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
@@ -2869,10 +2865,10 @@
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>73</v>
@@ -2886,10 +2882,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>73</v>
@@ -2899,7 +2895,7 @@
         <v>74</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>73</v>
@@ -2911,13 +2907,13 @@
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2968,7 +2964,7 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
@@ -2977,10 +2973,10 @@
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>73</v>
@@ -2994,10 +2990,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>73</v>
@@ -3007,7 +3003,7 @@
         <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>73</v>
@@ -3019,13 +3015,13 @@
         <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>153</v>
-      </c>
       <c r="L15" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3076,7 +3072,7 @@
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
@@ -3085,10 +3081,10 @@
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>73</v>
@@ -3102,10 +3098,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>73</v>
@@ -3115,7 +3111,7 @@
         <v>74</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>73</v>
@@ -3127,13 +3123,13 @@
         <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>156</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3184,7 +3180,7 @@
         <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -3193,10 +3189,10 @@
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>73</v>
@@ -3210,20 +3206,20 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>73</v>
@@ -3235,13 +3231,13 @@
         <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3292,7 +3288,7 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
@@ -3301,10 +3297,10 @@
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>73</v>
@@ -3318,20 +3314,20 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>73</v>
@@ -3343,13 +3339,13 @@
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3400,7 +3396,7 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
@@ -3409,10 +3405,10 @@
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>73</v>
@@ -3426,10 +3422,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>73</v>
@@ -3439,7 +3435,7 @@
         <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>73</v>
@@ -3451,13 +3447,13 @@
         <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="L19" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3508,7 +3504,7 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -3517,10 +3513,10 @@
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>73</v>
@@ -3534,10 +3530,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>73</v>
@@ -3547,7 +3543,7 @@
         <v>74</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>73</v>
@@ -3559,13 +3555,13 @@
         <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>170</v>
-      </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3616,7 +3612,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3628,7 +3624,7 @@
         <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>73</v>
@@ -3642,10 +3638,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>73</v>
@@ -3655,7 +3651,7 @@
         <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>73</v>
@@ -3667,13 +3663,13 @@
         <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="L21" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3724,7 +3720,7 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
@@ -3736,7 +3732,7 @@
         <v>73</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>73</v>
@@ -3750,10 +3746,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>73</v>
@@ -3763,7 +3759,7 @@
         <v>74</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>73</v>
@@ -3775,13 +3771,13 @@
         <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="L22" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3832,7 +3828,7 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -3844,7 +3840,7 @@
         <v>73</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>73</v>
@@ -3858,10 +3854,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>73</v>
@@ -3883,13 +3879,13 @@
         <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="L23" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3940,7 +3936,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -3952,7 +3948,7 @@
         <v>73</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>73</v>
@@ -3966,10 +3962,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>73</v>
@@ -3991,13 +3987,13 @@
         <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>182</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4048,7 +4044,7 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -4060,7 +4056,7 @@
         <v>73</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>73</v>
@@ -4074,11 +4070,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4091,25 +4087,25 @@
         <v>73</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>73</v>
@@ -4158,7 +4154,7 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -4170,7 +4166,7 @@
         <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>73</v>
@@ -4179,12 +4175,12 @@
         <v>73</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4204,22 +4200,22 @@
         <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>73</v>
@@ -4268,7 +4264,7 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4280,13 +4276,13 @@
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>73</v>
@@ -4294,7 +4290,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4314,16 +4310,16 @@
         <v>73</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4374,7 +4370,7 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
@@ -4386,21 +4382,21 @@
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>203</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4420,19 +4416,19 @@
         <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4482,7 +4478,7 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
@@ -4494,25 +4490,25 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4528,19 +4524,19 @@
         <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4590,7 +4586,7 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
@@ -4602,10 +4598,10 @@
         <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>73</v>
@@ -4616,11 +4612,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4636,16 +4632,16 @@
         <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4696,7 +4692,7 @@
         <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
@@ -4708,10 +4704,10 @@
         <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>73</v>
@@ -4722,7 +4718,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4745,13 +4741,13 @@
         <v>73</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4802,7 +4798,7 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -4814,7 +4810,7 @@
         <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>73</v>
@@ -4828,7 +4824,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4836,31 +4832,31 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H32" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="I32" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4886,49 +4882,49 @@
         <v>73</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
+      <c r="AK32" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>73</v>
@@ -4936,39 +4932,39 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J33" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4994,44 +4990,44 @@
         <v>73</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>73</v>
@@ -5042,7 +5038,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5065,16 +5061,16 @@
         <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5100,14 +5096,14 @@
         <v>73</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>249</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>73</v>
       </c>
@@ -5124,7 +5120,7 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -5136,13 +5132,13 @@
         <v>73</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>73</v>
@@ -5150,7 +5146,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5161,98 +5157,98 @@
         <v>74</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P35" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Q35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="X35" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="Q35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="X35" t="s" s="2">
+      <c r="Y35" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>73</v>
@@ -5260,7 +5256,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5268,10 +5264,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>73</v>
@@ -5283,13 +5279,13 @@
         <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5316,11 +5312,11 @@
         <v>73</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>73</v>
@@ -5338,7 +5334,7 @@
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -5350,7 +5346,7 @@
         <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>73</v>
@@ -5364,36 +5360,36 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J37" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5444,25 +5440,25 @@
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>73</v>
@@ -5470,7 +5466,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5493,16 +5489,16 @@
         <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5528,49 +5524,49 @@
         <v>73</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="Z38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>73</v>
@@ -5578,7 +5574,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5601,16 +5597,16 @@
         <v>73</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5660,7 +5656,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5672,13 +5668,13 @@
         <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>73</v>
@@ -5686,7 +5682,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5706,19 +5702,19 @@
         <v>73</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5768,25 +5764,25 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>73</v>
@@ -5794,7 +5790,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5817,13 +5813,13 @@
         <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5874,25 +5870,25 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>73</v>
@@ -5900,7 +5896,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5911,7 +5907,7 @@
         <v>74</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>73</v>
@@ -5923,13 +5919,13 @@
         <v>73</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5980,25 +5976,25 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>73</v>
@@ -6006,7 +6002,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6029,13 +6025,13 @@
         <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6086,7 +6082,7 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
@@ -6098,13 +6094,13 @@
         <v>73</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>73</v>
@@ -6112,7 +6108,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6123,7 +6119,7 @@
         <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
@@ -6135,13 +6131,13 @@
         <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6192,25 +6188,25 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>73</v>
@@ -6218,7 +6214,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6238,19 +6234,19 @@
         <v>73</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6276,14 +6272,14 @@
         <v>73</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>73</v>
       </c>
@@ -6300,7 +6296,7 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -6312,21 +6308,21 @@
         <v>73</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>315</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6346,16 +6342,16 @@
         <v>73</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6406,7 +6402,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -6418,21 +6414,21 @@
         <v>73</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>321</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6455,13 +6451,13 @@
         <v>73</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6512,7 +6508,7 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -6524,7 +6520,7 @@
         <v>73</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>73</v>
@@ -6538,7 +6534,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6549,7 +6545,7 @@
         <v>74</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>73</v>
@@ -6561,13 +6557,13 @@
         <v>73</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6618,37 +6614,37 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>331</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6667,16 +6663,16 @@
         <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6726,7 +6722,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -6738,7 +6734,7 @@
         <v>73</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>73</v>
@@ -6747,16 +6743,16 @@
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6769,25 +6765,25 @@
         <v>73</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>339</v>
-      </c>
       <c r="M50" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>73</v>
@@ -6836,7 +6832,7 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -6848,7 +6844,7 @@
         <v>73</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>73</v>
@@ -6857,12 +6853,12 @@
         <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6870,10 +6866,10 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>73</v>
@@ -6885,13 +6881,13 @@
         <v>73</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6942,19 +6938,19 @@
         <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>73</v>
@@ -6968,7 +6964,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6991,13 +6987,13 @@
         <v>73</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7048,7 +7044,7 @@
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -7060,10 +7056,10 @@
         <v>73</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>73</v>
